--- a/Averages.xlsx
+++ b/Averages.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">Minutes</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Decimal of Minutes in Seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,6 +176,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -192,17 +207,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1048576" activeCellId="0" sqref="D1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="false" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8137651821862"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.90688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5222672064777"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="9.90688259109312"/>
     <col collapsed="false" hidden="true" max="1025" min="11" style="0" width="0"/>
   </cols>
   <sheetData>
@@ -234,13 +249,13 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>10</v>
@@ -250,20 +265,20 @@
       </c>
       <c r="F3" s="3" t="n">
         <f aca="false">SUM(C3:C9)+(SUM(B3:B9)*60)</f>
-        <v>3149</v>
+        <v>2754</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
@@ -271,7 +286,7 @@
       </c>
       <c r="F4" s="3" t="n">
         <f aca="false">F3/7</f>
-        <v>449.857142857143</v>
+        <v>393.428571428571</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6" t="s">
@@ -283,10 +298,10 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
@@ -294,7 +309,7 @@
       </c>
       <c r="F5" s="3" t="n">
         <f aca="false">F4/60</f>
-        <v>7.49761904761905</v>
+        <v>6.55714285714286</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
@@ -308,10 +323,10 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
@@ -319,26 +334,26 @@
       </c>
       <c r="F6" s="3" t="n">
         <f aca="false">F5-_xlfn.FLOOR.MATH(F5)</f>
-        <v>0.497619047619048</v>
+        <v>0.557142857142858</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(F5)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="3" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(F7)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
@@ -346,7 +361,7 @@
       </c>
       <c r="F7" s="3" t="n">
         <f aca="false">F6*60</f>
-        <v>29.8571428571429</v>
+        <v>33.4285714285715</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -356,10 +371,10 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -372,10 +387,10 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -385,7 +400,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -393,13 +408,74 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="9" t="n">
+        <f aca="false">MEDIAN(B3:B9)</f>
+        <v>4</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <f aca="false">MEDIAN(C3:C9)</f>
+        <v>18</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
